--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\PL2 TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PL2-TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA4CC3C-C7FC-4FDD-8997-7B80250D7396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AC26C1-230E-418B-943F-9F783784C0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{20AD4DD7-A69A-4D1B-B379-CB5F0DF12718}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="12735" xr2:uid="{20AD4DD7-A69A-4D1B-B379-CB5F0DF12718}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>método</t>
   </si>
@@ -130,13 +130,28 @@
   </si>
   <si>
     <t>tamanho de contexto: 4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>884 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? </t>
+  </si>
+  <si>
+    <t>2.1 bit/sim</t>
+  </si>
+  <si>
+    <t>tamanho de contexto: 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +163,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,9 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -492,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A11C24-E2CA-4621-B9BD-8C634EBDB2BB}">
-  <dimension ref="E4:M12"/>
+  <dimension ref="E4:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +657,10 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L12" t="s">
@@ -645,6 +668,35 @@
       </c>
       <c r="M12" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -654,5 +706,6 @@
     <hyperlink ref="G10" r:id="rId3" xr:uid="{196E15CF-26A1-4556-9261-B3FFEE121411}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PL2-TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AC26C1-230E-418B-943F-9F783784C0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9605F824-5935-41A8-9205-E75DB600B2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="12735" xr2:uid="{20AD4DD7-A69A-4D1B-B379-CB5F0DF12718}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{20AD4DD7-A69A-4D1B-B379-CB5F0DF12718}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>método</t>
   </si>
@@ -145,13 +145,64 @@
   </si>
   <si>
     <t>tamanho de contexto: 8</t>
+  </si>
+  <si>
+    <t>crome</t>
+  </si>
+  <si>
+    <t>rle+lz77</t>
+  </si>
+  <si>
+    <t>https://github.com/rsa9000/rle-util#rle-util-simple-rle-run-lenght-encoding-encodingdecoding-utility  +   https://github.com/manassra/LZ77-Compressor?fbclid=IwAR1hvYAj11xHEwvx9j3BYw8SwY29BsfXHwvUd-ocMERY-ApMuaLeLO0ftd8</t>
+  </si>
+  <si>
+    <t>21.2, 20.8</t>
+  </si>
+  <si>
+    <t>3705 sec</t>
+  </si>
+  <si>
+    <t>rle + ppm</t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t>21.2, 7.6</t>
+  </si>
+  <si>
+    <t>2.862</t>
+  </si>
+  <si>
+    <t>rle +lz77</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>war_and_peace</t>
+  </si>
+  <si>
+    <t>rle+ppm</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.2 MB</t>
+  </si>
+  <si>
+    <t>2.867</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +221,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,10 +255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -515,13 +575,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A11C24-E2CA-4621-B9BD-8C634EBDB2BB}">
-  <dimension ref="E4:M13"/>
+  <dimension ref="E4:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
@@ -606,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -698,14 +763,102 @@
       <c r="M13" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18">
+        <v>724</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{ADEC557A-769C-4CC7-BFFB-D9CEA7B7BB66}"/>
     <hyperlink ref="G9" r:id="rId2" xr:uid="{CB841920-8BFD-4168-BEAE-23A6EADC5913}"/>
     <hyperlink ref="G10" r:id="rId3" xr:uid="{196E15CF-26A1-4556-9261-B3FFEE121411}"/>
+    <hyperlink ref="G15" r:id="rId4" location="rle-util-simple-rle-run-lenght-encoding-encodingdecoding-utility  +  " display="https://github.com/rsa9000/rle-util#rle-util-simple-rle-run-lenght-encoding-encodingdecoding-utility  +  " xr:uid="{21DB6CAC-4649-4E47-8AA9-1CC99D5CFE21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>